--- a/不加剪枝.xlsx
+++ b/不加剪枝.xlsx
@@ -398,7 +398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A81:C82"/>
+  <dimension ref="A81:C107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -414,7 +414,7 @@
         <v>21</v>
       </c>
       <c r="C81" t="n">
-        <v>7.663941621780396</v>
+        <v>11.03278756141663</v>
       </c>
     </row>
     <row r="82">
@@ -422,10 +422,285 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C82" t="n">
-        <v>8.818153619766235</v>
+        <v>8.137417793273926</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>30</v>
+      </c>
+      <c r="C83" t="n">
+        <v>10.30880212783813</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>20</v>
+      </c>
+      <c r="C84" t="n">
+        <v>4.47484827041626</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>20</v>
+      </c>
+      <c r="C85" t="n">
+        <v>5.900791645050049</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>20</v>
+      </c>
+      <c r="C86" t="n">
+        <v>4.965357542037964</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>20</v>
+      </c>
+      <c r="C87" t="n">
+        <v>5.467082738876343</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>20</v>
+      </c>
+      <c r="C88" t="n">
+        <v>5.854047775268555</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>20</v>
+      </c>
+      <c r="C89" t="n">
+        <v>4.481588363647461</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>20</v>
+      </c>
+      <c r="C90" t="n">
+        <v>6.290641307830811</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>20</v>
+      </c>
+      <c r="C91" t="n">
+        <v>5.307360410690308</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>20</v>
+      </c>
+      <c r="C92" t="n">
+        <v>6.098032474517822</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>20</v>
+      </c>
+      <c r="C93" t="n">
+        <v>8.295670747756958</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>20</v>
+      </c>
+      <c r="C94" t="n">
+        <v>6.116580724716187</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>20</v>
+      </c>
+      <c r="C95" t="n">
+        <v>7.27654767036438</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>20</v>
+      </c>
+      <c r="C96" t="n">
+        <v>8.91546368598938</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>20</v>
+      </c>
+      <c r="C97" t="n">
+        <v>7.431999683380127</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>20</v>
+      </c>
+      <c r="C98" t="n">
+        <v>7.159640789031982</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>20</v>
+      </c>
+      <c r="C99" t="n">
+        <v>12.5074474811554</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>20</v>
+      </c>
+      <c r="C100" t="n">
+        <v>9.37457799911499</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>20</v>
+      </c>
+      <c r="C101" t="n">
+        <v>8.665096998214722</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>20</v>
+      </c>
+      <c r="C102" t="n">
+        <v>10.09737277030945</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>20</v>
+      </c>
+      <c r="C103" t="n">
+        <v>10.59728837013245</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>20</v>
+      </c>
+      <c r="C104" t="n">
+        <v>9.439916610717773</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>20</v>
+      </c>
+      <c r="C105" t="n">
+        <v>15.77405762672424</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>20</v>
+      </c>
+      <c r="C106" t="n">
+        <v>11.68164443969727</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>20</v>
+      </c>
+      <c r="C107" t="n">
+        <v>10.82139706611633</v>
       </c>
     </row>
   </sheetData>

--- a/不加剪枝.xlsx
+++ b/不加剪枝.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="396" yWindow="984" windowWidth="20544" windowHeight="11376" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="636" yWindow="732" windowWidth="20544" windowHeight="11376" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -53,7 +53,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -400,8 +401,8 @@
   </sheetPr>
   <dimension ref="A81:C107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -422,10 +423,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C82" t="n">
-        <v>8.137417793273926</v>
+        <v>10.5425124168396</v>
       </c>
     </row>
     <row r="83">
@@ -433,10 +434,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C83" t="n">
-        <v>10.30880212783813</v>
+        <v>11.91598153114319</v>
       </c>
     </row>
     <row r="84">
@@ -444,10 +445,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C84" t="n">
-        <v>4.47484827041626</v>
+        <v>10.55262136459351</v>
       </c>
     </row>
     <row r="85">
@@ -455,10 +456,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C85" t="n">
-        <v>5.900791645050049</v>
+        <v>15.48049664497375</v>
       </c>
     </row>
     <row r="86">
@@ -466,10 +467,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C86" t="n">
-        <v>4.965357542037964</v>
+        <v>23.99994778633118</v>
       </c>
     </row>
     <row r="87">
@@ -477,10 +478,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C87" t="n">
-        <v>5.467082738876343</v>
+        <v>22.5837414264679</v>
       </c>
     </row>
     <row r="88">
@@ -488,10 +489,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C88" t="n">
-        <v>5.854047775268555</v>
+        <v>103.8250200748444</v>
       </c>
     </row>
     <row r="89">
@@ -499,10 +500,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C89" t="n">
-        <v>4.481588363647461</v>
+        <v>76.23099040985107</v>
       </c>
     </row>
     <row r="90">
@@ -510,10 +511,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="C90" t="n">
-        <v>6.290641307830811</v>
+        <v>156.5005767345428</v>
       </c>
     </row>
     <row r="91">
@@ -521,10 +522,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="C91" t="n">
-        <v>5.307360410690308</v>
+        <v>172.4201</v>
       </c>
     </row>
     <row r="92">
@@ -532,10 +533,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C92" t="n">
-        <v>6.098032474517822</v>
+        <v>138.8169541358948</v>
       </c>
     </row>
     <row r="93">
@@ -543,10 +544,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="C93" t="n">
-        <v>8.295670747756958</v>
+        <v>155.0041201114655</v>
       </c>
     </row>
     <row r="94">
@@ -554,10 +555,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C94" t="n">
-        <v>6.116580724716187</v>
+        <v>147.5628893375397</v>
       </c>
     </row>
     <row r="95">
@@ -565,10 +566,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="C95" t="n">
-        <v>7.27654767036438</v>
+        <v>246.6192014217377</v>
       </c>
     </row>
     <row r="96">
@@ -576,10 +577,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="C96" t="n">
-        <v>8.91546368598938</v>
+        <v>474.7017552852631</v>
       </c>
     </row>
     <row r="97">
@@ -587,10 +588,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="C97" t="n">
-        <v>7.431999683380127</v>
+        <v>529.2619502544403</v>
       </c>
     </row>
     <row r="98">
@@ -598,10 +599,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="C98" t="n">
-        <v>7.159640789031982</v>
+        <v>563.6283569335938</v>
       </c>
     </row>
     <row r="99">
@@ -714,14 +715,114 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A81:C89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
-  <sheetData/>
+  <sheetData>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>20</v>
+      </c>
+      <c r="C81" t="n">
+        <v>20.85389494895935</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>20</v>
+      </c>
+      <c r="C82" t="n">
+        <v>35.48673295974731</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>20</v>
+      </c>
+      <c r="C83" t="n">
+        <v>27.50230884552002</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>21</v>
+      </c>
+      <c r="C84" t="n">
+        <v>46.71384358406067</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>21</v>
+      </c>
+      <c r="C85" t="n">
+        <v>51.40342569351196</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>21</v>
+      </c>
+      <c r="C86" t="n">
+        <v>57.29989647865295</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>21</v>
+      </c>
+      <c r="C87" t="n">
+        <v>90.17956185340881</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>22</v>
+      </c>
+      <c r="C88" t="n">
+        <v>325.9668319225311</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>23</v>
+      </c>
+      <c r="C89" t="n">
+        <v>719.3070805072784</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/不加剪枝.xlsx
+++ b/不加剪枝.xlsx
@@ -1,41 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\llieshan\source\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48730E78-D336-4C3D-B235-05C844913B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="636" yWindow="732" windowWidth="20544" windowHeight="11376" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="2652" yWindow="576" windowWidth="20544" windowHeight="11376" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -53,82 +58,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -394,435 +339,374 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A81:C107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A81:C100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+      <selection activeCell="I102" sqref="I102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="81">
-      <c r="A81" t="n">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>21</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>11.03278756141663</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="n">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>27</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>10.5425124168396</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="n">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>27</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>11.91598153114319</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="n">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>33</v>
       </c>
-      <c r="C84" t="n">
-        <v>10.55262136459351</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
+      <c r="C84">
+        <v>10.552621364593509</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>38</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>15.48049664497375</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="n">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>44</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>23.99994778633118</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="n">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>44</v>
       </c>
-      <c r="C87" t="n">
-        <v>22.5837414264679</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
+      <c r="C87">
+        <v>22.583741426467899</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>46</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>103.8250200748444</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="n">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>47</v>
       </c>
-      <c r="C89" t="n">
-        <v>76.23099040985107</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
+      <c r="C89">
+        <v>76.230990409851074</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>51</v>
       </c>
-      <c r="C90" t="n">
-        <v>156.5005767345428</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
+      <c r="C90">
+        <v>156.50057673454279</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>51</v>
       </c>
-      <c r="C91" t="n">
-        <v>172.4201</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
+      <c r="C91">
+        <v>172.42009999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>50</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>138.8169541358948</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="n">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>51</v>
       </c>
-      <c r="C93" t="n">
-        <v>155.0041201114655</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
+      <c r="C93">
+        <v>155.00412011146551</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>52</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>147.5628893375397</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="n">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>55</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>246.6192014217377</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="n">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>55</v>
       </c>
-      <c r="C96" t="n">
-        <v>474.7017552852631</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
+      <c r="C96">
+        <v>474.70175528526312</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>57</v>
       </c>
-      <c r="C97" t="n">
-        <v>529.2619502544403</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
+      <c r="C97">
+        <v>529.26195025444031</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>58</v>
       </c>
-      <c r="C98" t="n">
-        <v>563.6283569335938</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
+      <c r="C98">
+        <v>563.62835693359375</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" t="n">
-        <v>20</v>
-      </c>
-      <c r="C99" t="n">
-        <v>12.5074474811554</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
+      <c r="B99">
+        <v>61</v>
+      </c>
+      <c r="C99">
+        <v>1635.281559705734</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" t="n">
-        <v>20</v>
-      </c>
-      <c r="C100" t="n">
-        <v>9.37457799911499</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>100</v>
-      </c>
-      <c r="B101" t="n">
-        <v>20</v>
-      </c>
-      <c r="C101" t="n">
-        <v>8.665096998214722</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>101</v>
-      </c>
-      <c r="B102" t="n">
-        <v>20</v>
-      </c>
-      <c r="C102" t="n">
-        <v>10.09737277030945</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>102</v>
-      </c>
-      <c r="B103" t="n">
-        <v>20</v>
-      </c>
-      <c r="C103" t="n">
-        <v>10.59728837013245</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>103</v>
-      </c>
-      <c r="B104" t="n">
-        <v>20</v>
-      </c>
-      <c r="C104" t="n">
-        <v>9.439916610717773</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>104</v>
-      </c>
-      <c r="B105" t="n">
-        <v>20</v>
-      </c>
-      <c r="C105" t="n">
-        <v>15.77405762672424</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>105</v>
-      </c>
-      <c r="B106" t="n">
-        <v>20</v>
-      </c>
-      <c r="C106" t="n">
-        <v>11.68164443969727</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>106</v>
-      </c>
-      <c r="B107" t="n">
-        <v>20</v>
-      </c>
-      <c r="C107" t="n">
-        <v>10.82139706611633</v>
+      <c r="B100">
+        <v>62</v>
+      </c>
+      <c r="C100">
+        <v>1070.729019641876</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A81:C89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A81:C91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="81">
-      <c r="A81" t="n">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>20</v>
       </c>
-      <c r="C81" t="n">
-        <v>20.85389494895935</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
+      <c r="C81">
+        <v>20.853894948959351</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>20</v>
       </c>
-      <c r="C82" t="n">
-        <v>35.48673295974731</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
+      <c r="C82">
+        <v>35.486732959747307</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>20</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>27.50230884552002</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="n">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>21</v>
       </c>
-      <c r="C84" t="n">
-        <v>46.71384358406067</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
+      <c r="C84">
+        <v>46.713843584060669</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>21</v>
       </c>
-      <c r="C85" t="n">
-        <v>51.40342569351196</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
+      <c r="C85">
+        <v>51.403425693511963</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>21</v>
       </c>
-      <c r="C86" t="n">
-        <v>57.29989647865295</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
+      <c r="C86">
+        <v>57.299896478652947</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>21</v>
       </c>
-      <c r="C87" t="n">
-        <v>90.17956185340881</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
+      <c r="C87">
+        <v>90.179561853408813</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>22</v>
       </c>
-      <c r="C88" t="n">
-        <v>325.9668319225311</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
+      <c r="C88">
+        <v>325.96683192253113</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>23</v>
       </c>
-      <c r="C89" t="n">
-        <v>719.3070805072784</v>
+      <c r="C89">
+        <v>719.30708050727844</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>23</v>
+      </c>
+      <c r="C90">
+        <v>1460.3310656547551</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>23</v>
+      </c>
+      <c r="C91">
+        <v>1516.8256185054779</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>